--- a/PYAUTOGUI/Histogram.xlsx
+++ b/PYAUTOGUI/Histogram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MuhammadShamaas\Projects_Github\PYAUTOGUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7688A31-A04E-4B9D-B09F-D162338681A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFD6E3D-2A5F-4E39-A4D1-D33B440D2F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,19 +473,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>616</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>142</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -500,32 +500,32 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
@@ -542,32 +542,32 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
@@ -581,25 +581,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0</c:v>
@@ -864,6 +864,7 @@
         <c:axId val="1816678784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="700"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1877,7 +1878,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1895,7 +1896,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>616</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1903,7 +1904,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1911,7 +1912,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1919,7 +1920,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1927,7 +1928,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1967,7 +1968,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1983,7 +1984,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1991,7 +1992,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2007,7 +2008,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2015,7 +2016,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2031,7 +2032,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2079,7 +2080,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2143,7 +2144,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2183,7 +2184,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2236,7 +2237,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">

--- a/PYAUTOGUI/Histogram.xlsx
+++ b/PYAUTOGUI/Histogram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MuhammadShamaas\Projects_Github\PYAUTOGUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFD6E3D-2A5F-4E39-A4D1-D33B440D2F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C1F9DC-CBA5-4C47-8B3A-A2F221A68999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,6 +32,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Total members</t>
+  </si>
+  <si>
+    <t>Total Groups</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,22 +484,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>600</c:v>
+                  <c:v>588</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>145</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
@@ -503,7 +514,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
@@ -518,32 +529,32 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
@@ -566,79 +577,79 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>0</c:v>
@@ -1875,327 +1886,483 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <f>A1*B1-1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+      <c r="C2">
+        <f>A2*B2-2*B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="C3">
+        <f>A3*B3-2*B3</f>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="C4">
+        <f>A4*B4-2*B4</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C68" si="0">A5*B5-2*B5</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>A39+1</f>
         <v>40</v>
@@ -2203,8 +2370,12 @@
       <c r="B40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>A40+1</f>
         <v>41</v>
@@ -2212,542 +2383,794 @@
       <c r="B41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" ref="A42:A100" si="0">A41+1</f>
+        <f t="shared" ref="A42:A100" si="1">A41+1</f>
         <v>42</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B46">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <f t="shared" ref="C69:C100" si="2">A69*B69-2*B69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B101">
         <f>SUM(B1:B100)</f>
-        <v>835</v>
+        <v>851</v>
+      </c>
+      <c r="C101">
+        <f>SUM(C1:C100)</f>
+        <v>596</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/PYAUTOGUI/Histogram.xlsx
+++ b/PYAUTOGUI/Histogram.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MuhammadShamaas\Projects_Github\PYAUTOGUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5A4487-F0DE-42EA-B8D2-4D78395EDB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4382ED2A-C3EB-4D5B-8652-122F739066E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,73 +481,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>74</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>618</c:v>
+                  <c:v>632</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>215</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -556,16 +556,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
@@ -598,7 +598,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
@@ -628,10 +628,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -679,7 +679,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>0</c:v>
@@ -1889,7 +1889,7 @@
   <dimension ref="A1:H2000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1899,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="C1">
         <f>A1*B1-1*B1</f>
@@ -1918,7 +1918,8 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>618</v>
+        <f>561+71</f>
+        <v>632</v>
       </c>
       <c r="C2">
         <f>A2*B2-2*B2</f>
@@ -1929,7 +1930,7 @@
       </c>
       <c r="H2">
         <f>SUM(C3:C2000)</f>
-        <v>2577</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1937,11 +1938,12 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>215</v>
+        <f>21+206</f>
+        <v>227</v>
       </c>
       <c r="C3">
         <f>A3*B3-2*B3</f>
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1949,11 +1951,11 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C4">
         <f>A4*B4-2*B4</f>
-        <v>188</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1961,11 +1963,11 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">A5*B5-2*B5</f>
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1973,11 +1975,11 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1985,11 +1987,11 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1997,11 +1999,11 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2009,11 +2011,11 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2021,11 +2023,11 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2033,11 +2035,11 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2045,11 +2047,11 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2057,11 +2059,11 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2069,11 +2071,11 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2081,11 +2083,11 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2093,11 +2095,11 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2105,11 +2107,11 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2117,11 +2119,11 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2141,11 +2143,11 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2165,11 +2167,11 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2177,11 +2179,11 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2213,11 +2215,11 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2225,11 +2227,11 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2249,11 +2251,11 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2382,11 +2384,11 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2512,11 +2514,11 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2525,11 +2527,11 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2733,11 +2735,11 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C67">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -3409,11 +3411,11 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119">
         <f t="shared" si="2"/>
-        <v>117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -4007,11 +4009,11 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -21557,11 +21559,11 @@
         <v>1515</v>
       </c>
       <c r="B1515">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1515">
         <f t="shared" si="46"/>
-        <v>1513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1516" spans="1:3" x14ac:dyDescent="0.25">
@@ -21739,11 +21741,11 @@
         <v>1529</v>
       </c>
       <c r="B1529">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1529">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="1530" spans="1:3" x14ac:dyDescent="0.25">

--- a/PYAUTOGUI/Histogram.xlsx
+++ b/PYAUTOGUI/Histogram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MuhammadShamaas\Projects_Github\PYAUTOGUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4382ED2A-C3EB-4D5B-8652-122F739066E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB20335-CBC9-4203-9ACA-162D4AE7ACB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,10 +123,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -145,22 +146,16 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -786,7 +781,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-728A-4401-BCB6-81DF7BE8A180}"/>
+              <c16:uniqueId val="{00000001-4445-4221-A5AE-4C56AE3BCF38}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -799,36 +794,734 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1816679616"/>
-        <c:axId val="1816678784"/>
+        <c:axId val="1210123696"/>
+        <c:axId val="1210124112"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$1:$A$100</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="100"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>99</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$1:$A$100</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="100"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>99</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-4445-4221-A5AE-4C56AE3BCF38}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1816679616"/>
+        <c:axId val="1210123696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1210124112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1210124112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -852,8 +1545,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -864,77 +1558,7 @@
             <a:endParaRPr lang="en-PK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1816678784"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1816678784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="700"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-PK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1816679616"/>
+        <c:crossAx val="1210123696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -946,6 +1570,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -959,14 +1614,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1034,46 +1686,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1082,14 +1721,38 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1099,18 +1762,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1118,131 +1786,84 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1258,18 +1879,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1279,22 +1903,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1303,13 +1927,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1321,13 +1946,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1339,35 +1965,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1377,29 +1998,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1409,13 +2017,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1427,13 +2036,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1445,26 +2055,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1472,8 +2083,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1483,13 +2095,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1501,11 +2114,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1514,15 +2128,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1531,8 +2144,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1546,17 +2160,15 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1565,8 +2177,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1576,8 +2189,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1586,23 +2205,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>52387</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC59237-20B5-F2F6-1B91-76BE2240601D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{242DD48B-EA69-C45D-17CF-40A1BD445E07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1889,7 +2508,7 @@
   <dimension ref="A1:H2000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1910,7 +2529,7 @@
       </c>
       <c r="H1">
         <f>SUM(B1:B2000)</f>
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1930,7 +2549,7 @@
       </c>
       <c r="H2">
         <f>SUM(C3:C2000)</f>
-        <v>2982</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5309,11 +5928,11 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>263</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
